--- a/testExcelFiles/28-03-2025.xlsx
+++ b/testExcelFiles/28-03-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivankikic/Documents/Projects/Croativa/sank-app/testExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2C9B3-633F-4547-BF42-C0383DDB1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060D0E88-50FF-414F-A373-46578D0E4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E8B426C2-CD1F-6849-8FCB-753DDAEAA3B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Artikl</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5071B95D-F9E3-F146-BC12-252727FD21C5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,6 +445,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testExcelFiles/28-03-2025.xlsx
+++ b/testExcelFiles/28-03-2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivankikic/Documents/Projects/Croativa/sank-app/testExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060D0E88-50FF-414F-A373-46578D0E4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200FB58-EF53-AD46-A25C-184BCE31D690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E8B426C2-CD1F-6849-8FCB-753DDAEAA3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Artikl</t>
   </si>
@@ -49,14 +49,80 @@
     <t>Jamnica 1L</t>
   </si>
   <si>
-    <t>Coca Cola 0.5l</t>
+    <t>Coca Cola 0.5L</t>
+  </si>
+  <si>
+    <t>Pelinkovac 0.03L</t>
+  </si>
+  <si>
+    <t>Jeger 0.03L</t>
+  </si>
+  <si>
+    <t>Gin Bombay 0.03L</t>
+  </si>
+  <si>
+    <t>Gin Hendricks 0.03L</t>
+  </si>
+  <si>
+    <t>Coca Cola 1L</t>
+  </si>
+  <si>
+    <t>Coca Cola 2L</t>
+  </si>
+  <si>
+    <t>Jamnica 0.5L</t>
+  </si>
+  <si>
+    <t>Fanta 0.5L</t>
+  </si>
+  <si>
+    <t>Sprite 0.5L</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon 0.5L</t>
+  </si>
+  <si>
+    <t>Schweppes Tangerine 0.5L</t>
+  </si>
+  <si>
+    <t>Cockta 0.5L</t>
+  </si>
+  <si>
+    <t>Ledeni čaj breskva 0.5L</t>
+  </si>
+  <si>
+    <t>Ledeni čaj limun 0.5L</t>
+  </si>
+  <si>
+    <t>Jana voda 0.5L</t>
+  </si>
+  <si>
+    <t>Jana voda 1L</t>
+  </si>
+  <si>
+    <t>Cedevita naranča 0.5L</t>
+  </si>
+  <si>
+    <t>Cedevita limun 0.5L</t>
+  </si>
+  <si>
+    <t>Red Bull 0.25L</t>
+  </si>
+  <si>
+    <t>Monster Energy 0.5L</t>
+  </si>
+  <si>
+    <t>Orangina 0.5L</t>
+  </si>
+  <si>
+    <t>Sensation Tonic Water 0.25L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,16 +130,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FAFC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +159,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD1D5DB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD1D5DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD1D5DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD1D5DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5071B95D-F9E3-F146-BC12-252727FD21C5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -424,33 +523,315 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(5,30)</f>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(5,30)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <f t="shared" ref="B3:C25" ca="1" si="0">RANDBETWEEN(5,30)</f>
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
